--- a/GalleryWebApplication/GalleryWebApplication/gallery_03.04.2023 (7).xlsx
+++ b/GalleryWebApplication/GalleryWebApplication/gallery_03.04.2023 (7).xlsx
@@ -14,38 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Photo Path</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Ihor Kostiuk</t>
-  </si>
-  <si>
-    <t>Printmaking</t>
-  </si>
-  <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t>vdsvdxv</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,51 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="1" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
